--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.120420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.120420.xlsx_with_dialog_acts.xlsx
@@ -601,12 +601,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1945,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4255,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5725,12 +5725,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5939,12 +5939,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6485,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6779,12 +6779,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6821,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7157,12 +7157,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7325,12 +7325,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7451,12 +7451,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7787,12 +7787,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7913,12 +7913,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8291,12 +8291,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8375,12 +8375,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8417,12 +8417,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8537,12 +8537,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8617,12 +8617,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8977,12 +8977,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9177,12 +9177,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9657,12 +9657,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10177,12 +10177,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10737,12 +10737,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10857,12 +10857,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10897,12 +10897,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10937,12 +10937,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11537,12 +11537,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11697,12 +11697,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11817,12 +11817,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11857,12 +11857,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12137,12 +12137,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12217,12 +12217,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13017,12 +13017,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13337,12 +13337,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13497,12 +13497,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13577,12 +13577,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13617,12 +13617,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13741,12 +13741,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13781,12 +13781,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13821,12 +13821,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13861,12 +13861,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13901,12 +13901,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14301,12 +14301,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14581,12 +14581,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14661,12 +14661,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14741,12 +14741,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16357,12 +16357,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16637,12 +16637,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16677,12 +16677,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16837,12 +16837,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16957,12 +16957,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17485,12 +17485,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17569,12 +17569,12 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17609,12 +17609,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18453,12 +18453,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18853,12 +18853,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18973,12 +18973,12 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19173,12 +19173,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19373,12 +19373,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19733,12 +19733,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
